--- a/zestaw 3.xlsx
+++ b/zestaw 3.xlsx
@@ -8,14 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tynka/zestawy34/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68D5E60-DCB3-704D-BD65-2E49227A9E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3367EE2A-3741-CA4B-BCE9-F43C9222E777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1400" yWindow="1420" windowWidth="27840" windowHeight="16740" xr2:uid="{B4DD5088-B7E5-BC42-A54F-A3434BF7F367}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="szereg_duze" localSheetId="0">Arkusz1!$A$1:$D$9</definedName>
+    <definedName name="szereg_male_p" localSheetId="0">Arkusz1!$A$24:$D$34</definedName>
+    <definedName name="szereg_wszystkie" localSheetId="0">Arkusz1!$A$11:$D$22</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,9 +40,208 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{19257799-7A9D-8A43-8B9E-EB33DBF80CA7}" name="szereg_duze" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="65001" sourceFile="/Users/tynka/zestawy34/szereg_duze.csv" decimal="," thousands=" " tab="0" comma="1">
+      <textFields count="4">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" xr16:uid="{6BDE02AE-A07A-6649-A7BA-E05C9605DA39}" name="szereg_male_p" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="65001" sourceFile="/Users/tynka/zestawy34/szereg_male_p.csv" decimal="," thousands=" " comma="1">
+      <textFields count="4">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="3" xr16:uid="{BBF5E75E-B0E2-D34A-8285-84DB1F67F3BF}" name="szereg_wszystkie" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="65001" sourceFile="/Users/tynka/zestawy34/szereg_wszystkie.csv" decimal="," thousands=" " comma="1">
+      <textFields count="4">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="53">
+  <si>
+    <t>przedział</t>
+  </si>
+  <si>
+    <t>lewy_kr</t>
+  </si>
+  <si>
+    <t>prawy_kr</t>
+  </si>
+  <si>
+    <t>liczebność</t>
+  </si>
+  <si>
+    <t>5.895</t>
+  </si>
+  <si>
+    <t>7.265</t>
+  </si>
+  <si>
+    <t>8.635</t>
+  </si>
+  <si>
+    <t>10.005</t>
+  </si>
+  <si>
+    <t>11.375</t>
+  </si>
+  <si>
+    <t>12.745</t>
+  </si>
+  <si>
+    <t>14.115</t>
+  </si>
+  <si>
+    <t>15.485</t>
+  </si>
+  <si>
+    <t>16.855</t>
+  </si>
+  <si>
+    <t>DUŻE</t>
+  </si>
+  <si>
+    <t>3.195</t>
+  </si>
+  <si>
+    <t>4.435</t>
+  </si>
+  <si>
+    <t>5.675</t>
+  </si>
+  <si>
+    <t>6.915</t>
+  </si>
+  <si>
+    <t>8.155</t>
+  </si>
+  <si>
+    <t>9.395</t>
+  </si>
+  <si>
+    <t>10.635</t>
+  </si>
+  <si>
+    <t>11.875</t>
+  </si>
+  <si>
+    <t>13.115</t>
+  </si>
+  <si>
+    <t>14.355</t>
+  </si>
+  <si>
+    <t>15.595</t>
+  </si>
+  <si>
+    <t>16.835</t>
+  </si>
+  <si>
+    <t>WSZYSTKIE</t>
+  </si>
+  <si>
+    <t>4.115</t>
+  </si>
+  <si>
+    <t>5.035</t>
+  </si>
+  <si>
+    <t>5.955</t>
+  </si>
+  <si>
+    <t>6.875</t>
+  </si>
+  <si>
+    <t>7.795</t>
+  </si>
+  <si>
+    <t>8.715</t>
+  </si>
+  <si>
+    <t>9.635</t>
+  </si>
+  <si>
+    <t>10.555</t>
+  </si>
+  <si>
+    <t>11.475</t>
+  </si>
+  <si>
+    <t>12.395</t>
+  </si>
+  <si>
+    <t>MAŁE</t>
+  </si>
+  <si>
+    <t>Małe:</t>
+  </si>
+  <si>
+    <t>Średnia: 6.89</t>
+  </si>
+  <si>
+    <t>Wariancja: 4.03</t>
+  </si>
+  <si>
+    <t>Mediana: 7.00</t>
+  </si>
+  <si>
+    <t>Dominanta: 7.30</t>
+  </si>
+  <si>
+    <t>Duże:</t>
+  </si>
+  <si>
+    <t>Średnia: 10.19</t>
+  </si>
+  <si>
+    <t>Wariancja: 4.13</t>
+  </si>
+  <si>
+    <t>Mediana: 10.18</t>
+  </si>
+  <si>
+    <t>Dominanta: 10.23</t>
+  </si>
+  <si>
+    <t>Wszystkie dane:</t>
+  </si>
+  <si>
+    <t>Średnia: 8.40</t>
+  </si>
+  <si>
+    <t>Wariancja: 6.66</t>
+  </si>
+  <si>
+    <t>Mediana: 8.40</t>
+  </si>
+  <si>
+    <t>Dominanta: 8.16</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -46,16 +250,41 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF69B3A2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -63,18 +292,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF8CF5DF"/>
+      <color rgb="FF69B3A2"/>
+      <color rgb="FF9BC1B9"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -84,6 +344,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="szereg_male_p" connectionId="2" xr16:uid="{6E0FC2E8-F68A-4041-8872-30813A5E7D9F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="szereg_wszystkie" connectionId="3" xr16:uid="{2A2E3344-B5BF-AC40-834D-4408B7C4BC03}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="szereg_duze" connectionId="1" xr16:uid="{94DC2A12-1512-E747-BC1C-D37AA81A4875}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -403,14 +675,525 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D1543D-5422-C64F-86BB-3ECC0BC8CCD5}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H10" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="2">
+        <v>11</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>2</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="2">
+        <v>9</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>3</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="2">
+        <v>20</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="2">
+        <v>23</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>5</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="2">
+        <v>23</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>6</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="2">
+        <v>22</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>7</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="2">
+        <v>17</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>8</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="2">
+        <v>6</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>9</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>10</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>11</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>1</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>2</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>3</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>4</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>5</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>6</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>7</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>8</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>9</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>10</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" s="2">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>